--- a/ML/ML_files/2014_DEC.xlsx
+++ b/ML/ML_files/2014_DEC.xlsx
@@ -870,7 +870,7 @@
         <v>90326</v>
       </c>
       <c r="G11">
-        <v>87.84181741691206</v>
+        <v>87.84181741691207</v>
       </c>
       <c r="H11">
         <v>632745</v>
@@ -1069,7 +1069,7 @@
         <v>1576</v>
       </c>
       <c r="M15">
-        <v>48.28680203045685</v>
+        <v>48.28680203045686</v>
       </c>
       <c r="N15">
         <v>15</v>
@@ -1830,7 +1830,7 @@
         <v>14671</v>
       </c>
       <c r="M32">
-        <v>11.26712562197532</v>
+        <v>11.26712562197533</v>
       </c>
       <c r="N32">
         <v>129</v>
@@ -1919,7 +1919,7 @@
         <v>26079</v>
       </c>
       <c r="J34">
-        <v>39.39184784692664</v>
+        <v>39.39184784692665</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2219,7 +2219,7 @@
         <v>2473</v>
       </c>
       <c r="M40">
-        <v>88.47553578649413</v>
+        <v>88.47553578649414</v>
       </c>
       <c r="N40">
         <v>2136</v>
@@ -2575,7 +2575,7 @@
         <v>105434</v>
       </c>
       <c r="G48">
-        <v>95.68734943187206</v>
+        <v>95.68734943187207</v>
       </c>
       <c r="H48">
         <v>953840</v>
@@ -2646,7 +2646,7 @@
         <v>3710993</v>
       </c>
       <c r="J50">
-        <v>61.08982151138522</v>
+        <v>61.08982151138523</v>
       </c>
       <c r="K50">
         <v>30614</v>
@@ -4276,7 +4276,7 @@
         <v>19365663</v>
       </c>
       <c r="J90">
-        <v>92.02021640054357</v>
+        <v>92.02021640054358</v>
       </c>
       <c r="K90">
         <v>17820325</v>
@@ -4285,7 +4285,7 @@
         <v>19365663</v>
       </c>
       <c r="M90">
-        <v>92.02021640054357</v>
+        <v>92.02021640054358</v>
       </c>
       <c r="N90">
         <v>1060</v>
@@ -5825,7 +5825,7 @@
         <v>154764</v>
       </c>
       <c r="M127">
-        <v>102.9535292445271</v>
+        <v>102.9535292445272</v>
       </c>
       <c r="N127">
         <v>13</v>
@@ -6396,7 +6396,7 @@
         <v>227614</v>
       </c>
       <c r="G143">
-        <v>85.91035700791691</v>
+        <v>85.91035700791692</v>
       </c>
       <c r="H143">
         <v>1952812</v>
@@ -7012,7 +7012,7 @@
         <v>53556</v>
       </c>
       <c r="J159">
-        <v>123.4782283964448</v>
+        <v>123.4782283964449</v>
       </c>
       <c r="K159">
         <v>11501</v>
@@ -7347,7 +7347,7 @@
         <v>18544</v>
       </c>
       <c r="G167">
-        <v>84.39387402933563</v>
+        <v>84.39387402933564</v>
       </c>
       <c r="H167">
         <v>271430</v>
@@ -7430,7 +7430,7 @@
         <v>303917</v>
       </c>
       <c r="D169">
-        <v>101.5889206592589</v>
+        <v>101.588920659259</v>
       </c>
       <c r="E169">
         <v>13858</v>
@@ -8188,7 +8188,7 @@
         <v>86110</v>
       </c>
       <c r="G189">
-        <v>13.00313552432934</v>
+        <v>13.00313552432935</v>
       </c>
       <c r="H189">
         <v>278742</v>
@@ -8470,7 +8470,7 @@
         <v>163673</v>
       </c>
       <c r="J195">
-        <v>58.7354053509131</v>
+        <v>58.73540535091311</v>
       </c>
       <c r="K195">
         <v>0</v>
@@ -8738,10 +8738,10 @@
         <v>145.2498244592922</v>
       </c>
       <c r="E202">
-        <v>4003527.100000001</v>
+        <v>4003527.100000002</v>
       </c>
       <c r="F202">
-        <v>6103868.856000002</v>
+        <v>6103868.856000003</v>
       </c>
       <c r="G202">
         <v>65.58999209271347</v>
